--- a/results/pvalue_SIDER_rare_DGI_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28.379</t>
+          <t>27.148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>33.332</t>
+          <t>30.745</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>13.879</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.288</t>
+          <t>31.392</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22.457</t>
+          <t>22.422</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22.42</t>
+          <t>22.442</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.966</t>
+          <t>20.757</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.303</t>
+          <t>31.126</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.159</t>
+          <t>8.742</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
